--- a/project-management/or-ie/abc-analysis/excel/abc.xlsx
+++ b/project-management/or-ie/abc-analysis/excel/abc.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panzer4\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2064301-0E1E-487D-89F2-09DEE1F3F009}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF6DDF-3326-4E35-B5B8-356CF53532AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{C65F3F13-13F4-4D3E-BC99-D7B187932FD4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C65F3F13-13F4-4D3E-BC99-D7B187932FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -259,7 +256,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -277,36 +274,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,6 +774,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="313772112"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2123,12 +2091,12 @@
   </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
